--- a/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B549AD12-F674-4DF1-A099-987F69427862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D50854-9A32-4218-918F-8350C433D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD641A6D-3432-4925-9CF7-CE5837251187}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C105C693-83B7-4235-93F5-A7CD925734EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -287,31 +287,31 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,4%</t>
+    <t>95,28%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -320,202 +320,220 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -930,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A20310-BE44-4DAC-9F02-A7A941DCC1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A5FB03-3C21-4E22-947E-EEE7BCAF99B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,7 +1925,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -1958,7 +1976,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1993,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADDF0B2-296A-4F47-8654-95429567E724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D83CB-9796-4B40-A2DC-AE91CCF38651}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3056,7 +3074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A47E88-2DF3-4C87-8572-DB4EE21A886D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27B831-240E-48B1-BC3C-6881E4864E60}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFD08C6-CFEC-4FAF-96E5-28190B43A708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A2AD92-2D07-47B1-8D28-65C27E2A1BCB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4401,10 +4419,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4416,10 +4434,10 @@
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4428,13 +4446,13 @@
         <v>20498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4470,10 @@
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>971</v>
@@ -4467,10 +4485,10 @@
         <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>1569</v>
@@ -4479,13 +4497,13 @@
         <v>1149292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4571,13 @@
         <v>4987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4571,10 +4589,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4583,13 +4601,13 @@
         <v>21513</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4622,13 @@
         <v>1034261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>1483</v>
@@ -4622,10 +4640,10 @@
         <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>2438</v>
@@ -4634,13 +4652,13 @@
         <v>2077814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4726,13 @@
         <v>2260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4723,13 +4741,13 @@
         <v>20550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4738,13 +4756,13 @@
         <v>22810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4777,13 @@
         <v>726512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>1015</v>
@@ -4774,13 +4792,13 @@
         <v>853821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
@@ -4789,13 +4807,13 @@
         <v>1580332</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4881,13 @@
         <v>5181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4878,13 +4896,13 @@
         <v>12036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4893,13 +4911,13 @@
         <v>17216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4932,13 @@
         <v>960222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>1542</v>
@@ -4929,13 +4947,13 @@
         <v>1138396</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>2540</v>
@@ -4944,13 +4962,13 @@
         <v>2098619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5036,13 @@
         <v>23123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5033,13 +5051,13 @@
         <v>64776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -5048,13 +5066,13 @@
         <v>87899</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5087,13 @@
         <v>3362105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>5244</v>
@@ -5084,28 +5102,28 @@
         <v>3770805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>8580</v>
       </c>
       <c r="N20" s="7">
-        <v>7132910</v>
+        <v>7132909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5165,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D50854-9A32-4218-918F-8350C433D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FD2D65-D97C-4E2B-9645-2EF0A475EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C105C693-83B7-4235-93F5-A7CD925734EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D66541F-E314-489C-BAF8-E13E62C44062}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -948,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A5FB03-3C21-4E22-947E-EEE7BCAF99B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC416030-E657-4169-945C-50446CCA45D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1895,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1946,7 +1946,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D83CB-9796-4B40-A2DC-AE91CCF38651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079076A-E5FC-4B1D-AEEF-E8990CF72856}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3074,7 +3074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F27B831-240E-48B1-BC3C-6881E4864E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5FE546-ABE2-4332-861F-06CC5E698136}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4137,7 +4137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A2AD92-2D07-47B1-8D28-65C27E2A1BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D203BFB-2F16-49AA-912A-4581C14D0EF6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FD2D65-D97C-4E2B-9645-2EF0A475EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29120905-DCAB-4566-9E23-101CB7A42D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D66541F-E314-489C-BAF8-E13E62C44062}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AD0603A-9292-4F62-8CD4-5E1657444913}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -287,31 +287,31 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,72%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,28%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -320,220 +320,202 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -948,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC416030-E657-4169-945C-50446CCA45D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8F686-862A-479B-AF69-959D88C3786C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1877,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1925,7 +1907,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -1946,7 +1928,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1976,7 +1958,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2011,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079076A-E5FC-4B1D-AEEF-E8990CF72856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630EC762-F62B-4949-8489-A69FA7F38949}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3074,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5FE546-ABE2-4332-861F-06CC5E698136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AD5E1-6042-4D38-BAD5-50834C8E2431}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4137,7 +4119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D203BFB-2F16-49AA-912A-4581C14D0EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572E9EFA-0970-4396-A80E-41D2B55E907B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4419,10 +4401,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4434,10 +4416,10 @@
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4446,13 +4428,13 @@
         <v>20498</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,10 +4452,10 @@
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7">
         <v>971</v>
@@ -4485,10 +4467,10 @@
         <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>1569</v>
@@ -4497,13 +4479,13 @@
         <v>1149292</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4553,13 @@
         <v>4987</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4589,10 +4571,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4601,13 +4583,13 @@
         <v>21513</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4604,13 @@
         <v>1034261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>1483</v>
@@ -4640,10 +4622,10 @@
         <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>2438</v>
@@ -4652,13 +4634,13 @@
         <v>2077814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4708,13 @@
         <v>2260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4741,13 +4723,13 @@
         <v>20550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4756,13 +4738,13 @@
         <v>22810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4759,13 @@
         <v>726512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>1015</v>
@@ -4792,13 +4774,13 @@
         <v>853821</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
@@ -4807,13 +4789,13 @@
         <v>1580332</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4863,13 @@
         <v>5181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4896,13 +4878,13 @@
         <v>12036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4911,13 +4893,13 @@
         <v>17216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4914,13 @@
         <v>960222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>1542</v>
@@ -4947,13 +4929,13 @@
         <v>1138396</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>2540</v>
@@ -4962,13 +4944,13 @@
         <v>2098619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5018,13 @@
         <v>23123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5051,13 +5033,13 @@
         <v>64776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -5066,13 +5048,13 @@
         <v>87899</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5069,13 @@
         <v>3362105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>5244</v>
@@ -5102,28 +5084,28 @@
         <v>3770805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>8580</v>
       </c>
       <c r="N20" s="7">
-        <v>7132909</v>
+        <v>7132910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5147,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29120905-DCAB-4566-9E23-101CB7A42D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{868814D5-AB1D-4978-B482-9EB54B6D937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AD0603A-9292-4F62-8CD4-5E1657444913}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69BFD9A9-D02F-4515-8D93-A0E80C507177}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="131">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,445 +80,358 @@
     <t>0%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -930,8 +843,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8F686-862A-479B-AF69-959D88C3786C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10EF2EF-D3F2-417E-80EB-F7255D057EE4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1075,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1090,58 +1003,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>683</v>
+      </c>
+      <c r="D5" s="7">
+        <v>694012</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>105</v>
-      </c>
-      <c r="D5" s="7">
-        <v>115358</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>696</v>
+      </c>
+      <c r="I5" s="7">
+        <v>688351</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1379</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1382363</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>128</v>
-      </c>
-      <c r="I5" s="7">
-        <v>112755</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>233</v>
-      </c>
-      <c r="N5" s="7">
-        <v>228113</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1150,54 +1063,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1215,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1230,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1245,58 +1158,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>896</v>
+      </c>
+      <c r="D8" s="7">
+        <v>961800</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>578</v>
-      </c>
-      <c r="D8" s="7">
-        <v>578654</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,54 +1218,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1370,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1385,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1400,58 +1313,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>641</v>
+      </c>
+      <c r="D11" s="7">
+        <v>678509</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>896</v>
-      </c>
-      <c r="D11" s="7">
-        <v>961800</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>696</v>
+      </c>
+      <c r="I11" s="7">
+        <v>683841</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1362350</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>908</v>
-      </c>
-      <c r="I11" s="7">
-        <v>968393</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1804</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1930193</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1460,54 +1373,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1540,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1555,58 +1468,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>994</v>
+      </c>
+      <c r="D14" s="7">
+        <v>942222</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>641</v>
-      </c>
-      <c r="D14" s="7">
-        <v>678509</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I14" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N14" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,54 +1528,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1680,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1695,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1710,58 +1623,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>994</v>
-      </c>
-      <c r="D17" s="7">
-        <v>942222</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I17" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N17" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,217 +1683,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1993,8 +1750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630EC762-F62B-4949-8489-A69FA7F38949}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132E562E-ED3A-4B64-AD16-12BC4AEA83D3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2010,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2123,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2138,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2153,58 +1910,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>674</v>
+      </c>
+      <c r="D5" s="7">
+        <v>703469</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>122</v>
-      </c>
-      <c r="D5" s="7">
-        <v>115765</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>650</v>
+      </c>
+      <c r="I5" s="7">
+        <v>697050</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1400519</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
-      <c r="I5" s="7">
-        <v>111905</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>221</v>
-      </c>
-      <c r="N5" s="7">
-        <v>227670</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,54 +1970,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2278,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2293,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2308,58 +2065,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>936</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1017947</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>552</v>
-      </c>
-      <c r="D8" s="7">
-        <v>587704</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,54 +2125,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2433,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2448,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2463,58 +2220,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>689</v>
+      </c>
+      <c r="D11" s="7">
+        <v>757623</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>936</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1017947</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>705</v>
+      </c>
+      <c r="I11" s="7">
+        <v>777174</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1394</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1534797</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>940</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1032184</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1876</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2050131</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,54 +2280,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2588,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2603,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2618,58 +2375,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>910</v>
+      </c>
+      <c r="D14" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>689</v>
-      </c>
-      <c r="D14" s="7">
-        <v>757623</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I14" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N14" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,54 +2435,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2743,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2758,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2773,58 +2530,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>910</v>
-      </c>
-      <c r="D17" s="7">
-        <v>947739</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I17" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N17" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,217 +2590,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3056,8 +2657,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AD5E1-6042-4D38-BAD5-50834C8E2431}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564251E2-C31D-4B42-9D7F-4373B3CA8820}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3073,7 +2674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3186,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3201,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3216,58 +2817,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>652</v>
+      </c>
+      <c r="D5" s="7">
+        <v>674800</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>113</v>
-      </c>
-      <c r="D5" s="7">
-        <v>116546</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N5" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,54 +2877,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3341,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3356,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3371,58 +2972,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>951</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1022431</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>539</v>
-      </c>
-      <c r="D8" s="7">
-        <v>558254</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I8" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N8" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,54 +3032,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3496,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3511,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3526,58 +3127,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>696</v>
+      </c>
+      <c r="D11" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>951</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1022431</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I11" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N11" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,54 +3187,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3651,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3666,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3681,58 +3282,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>932</v>
+      </c>
+      <c r="D14" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>696</v>
-      </c>
-      <c r="D14" s="7">
-        <v>759552</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I14" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N14" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,54 +3342,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3806,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3821,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3836,58 +3437,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>932</v>
-      </c>
-      <c r="D17" s="7">
-        <v>937567</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I17" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N17" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,217 +3497,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4119,8 +3564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572E9EFA-0970-4396-A80E-41D2B55E907B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D66FEC1-0A6C-4158-99CB-593D69835C41}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4136,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4237,100 +3682,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2105</v>
+        <v>10239</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>3756</v>
+        <v>14803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>5861</v>
+        <v>25043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>711</v>
       </c>
       <c r="D5" s="7">
-        <v>99877</v>
+        <v>625202</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
-        <v>233</v>
+        <v>1204</v>
       </c>
       <c r="I5" s="7">
-        <v>126977</v>
+        <v>710527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
-        <v>346</v>
+        <v>1915</v>
       </c>
       <c r="N5" s="7">
-        <v>226854</v>
+        <v>1335729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,153 +3784,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4795</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>8591</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>11908</v>
+        <v>15379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>20498</v>
+        <v>20174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>598</v>
+        <v>955</v>
       </c>
       <c r="D8" s="7">
-        <v>541232</v>
+        <v>1188069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>971</v>
+        <v>1483</v>
       </c>
       <c r="I8" s="7">
-        <v>608059</v>
+        <v>943272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>1569</v>
+        <v>2438</v>
       </c>
       <c r="N8" s="7">
-        <v>1149292</v>
+        <v>2131342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,153 +3939,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4987</v>
+        <v>2119</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>16527</v>
+        <v>18666</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>21513</v>
+        <v>20785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>955</v>
+        <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>1034261</v>
+        <v>702561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>1483</v>
+        <v>1015</v>
       </c>
       <c r="I11" s="7">
-        <v>1043552</v>
+        <v>914700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>2438</v>
+        <v>1687</v>
       </c>
       <c r="N11" s="7">
-        <v>2077814</v>
+        <v>1617261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,153 +4094,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>2260</v>
+        <v>4901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>20550</v>
+        <v>10768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>22810</v>
+        <v>15669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>672</v>
+        <v>998</v>
       </c>
       <c r="D14" s="7">
-        <v>726512</v>
+        <v>921930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
-        <v>1015</v>
+        <v>1542</v>
       </c>
       <c r="I14" s="7">
-        <v>853821</v>
+        <v>1084164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
-        <v>1687</v>
+        <v>2540</v>
       </c>
       <c r="N14" s="7">
-        <v>1580332</v>
+        <v>2006094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,153 +4249,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>5181</v>
+        <v>22055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>12036</v>
+        <v>59616</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="N16" s="7">
-        <v>17216</v>
+        <v>81671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>998</v>
+        <v>3336</v>
       </c>
       <c r="D17" s="7">
-        <v>960222</v>
+        <v>3437762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
-        <v>1542</v>
+        <v>5244</v>
       </c>
       <c r="I17" s="7">
-        <v>1138396</v>
+        <v>3652664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
-        <v>2540</v>
+        <v>8580</v>
       </c>
       <c r="N17" s="7">
-        <v>2098619</v>
+        <v>7090426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,217 +4404,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23123</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="7">
-        <v>123</v>
-      </c>
-      <c r="I19" s="7">
-        <v>64776</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="7">
-        <v>163</v>
-      </c>
-      <c r="N19" s="7">
-        <v>87899</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3336</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3362105</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5244</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3770805</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8580</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7132910</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
